--- a/Berechnung/Leistungskurven der generierten Leistung.xlsx
+++ b/Berechnung/Leistungskurven der generierten Leistung.xlsx
@@ -8,33 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Berechnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA738B9-E307-4819-864A-B8F936E508A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE68089-36E4-4BE0-A432-B2B145372A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A41D972F-45F6-4483-AA63-B8E388FD5357}"/>
+    <workbookView xWindow="28680" yWindow="-5340" windowWidth="29040" windowHeight="15720" xr2:uid="{A41D972F-45F6-4483-AA63-B8E388FD5357}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$B$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$B$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$B$18</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$B$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$B$34</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$B$50</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$D$20</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$D$36</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$D$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$D$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$B$34</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$B$50</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$D$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$D$36</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$D$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$D$52</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$D$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$N$35</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -921,6 +901,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1408,6 +1391,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4825,8 +4811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0132114F-7C2D-48DE-B511-7F34D2E8E14E}">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4995,10 +4981,16 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
+      <c r="D52">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>7</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
